--- a/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_3_.xlsx
+++ b/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_3_.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,262 +423,122 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>-323406.9037060752</v>
+        <v>0.9883158986348851</v>
       </c>
       <c r="B1" t="n">
-        <v>-323410.0389500212</v>
+        <v>-0.01991750647244119</v>
       </c>
       <c r="C1" t="n">
-        <v>-323405.4526972536</v>
+        <v>1.376986154855319</v>
       </c>
       <c r="D1" t="n">
-        <v>-323407.279949845</v>
+        <v>0.2137275494794789</v>
       </c>
       <c r="E1" t="n">
-        <v>-323406.5433348225</v>
+        <v>1.570796380460873</v>
       </c>
       <c r="F1" t="n">
-        <v>-323405.3329097526</v>
+        <v>-0.5824804901111894</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-323406.8997098462</v>
+        <v>1.033804336397985</v>
       </c>
       <c r="B2" t="n">
-        <v>-323410.0389508551</v>
+        <v>-0.01991441604525263</v>
       </c>
       <c r="C2" t="n">
-        <v>-323405.4526968335</v>
+        <v>1.376967773556172</v>
       </c>
       <c r="D2" t="n">
-        <v>-323407.2799494312</v>
+        <v>0.2137428372470463</v>
       </c>
       <c r="E2" t="n">
-        <v>-323406.5433348225</v>
+        <v>1.570796381025976</v>
       </c>
       <c r="F2" t="n">
-        <v>-323405.3289135235</v>
+        <v>-0.5369920532977058</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-323406.8758271693</v>
+        <v>1.237622695656957</v>
       </c>
       <c r="B3" t="n">
-        <v>-323410.0389558389</v>
+        <v>-0.01990056888254586</v>
       </c>
       <c r="C3" t="n">
-        <v>-323405.4526943227</v>
+        <v>1.376885413149499</v>
       </c>
       <c r="D3" t="n">
-        <v>-323407.2799469584</v>
+        <v>0.2138113365812845</v>
       </c>
       <c r="E3" t="n">
-        <v>-323406.5433348225</v>
+        <v>1.570796383558012</v>
       </c>
       <c r="F3" t="n">
-        <v>-323405.3050308468</v>
+        <v>-0.3331736982936438</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-323406.8223989128</v>
+        <v>1.524375775699481</v>
       </c>
       <c r="B4" t="n">
-        <v>-323410.0389669881</v>
+        <v>-0.01988108723932955</v>
       </c>
       <c r="C4" t="n">
-        <v>-323405.452688706</v>
+        <v>1.376769539876979</v>
       </c>
       <c r="D4" t="n">
-        <v>-323407.2799414262</v>
+        <v>0.2139077086409218</v>
       </c>
       <c r="E4" t="n">
-        <v>-323406.5433348223</v>
+        <v>1.570796387120345</v>
       </c>
       <c r="F4" t="n">
-        <v>-323405.2516025905</v>
+        <v>-0.04642062423737447</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-323406.7388568924</v>
+        <v>1.728194134958453</v>
       </c>
       <c r="B5" t="n">
-        <v>-323410.0389844214</v>
+        <v>-0.01986724007662278</v>
       </c>
       <c r="C5" t="n">
-        <v>-323405.4526799236</v>
+        <v>1.376687179470306</v>
       </c>
       <c r="D5" t="n">
-        <v>-323407.2799327761</v>
+        <v>0.2139762079751601</v>
       </c>
       <c r="E5" t="n">
-        <v>-323406.5433348222</v>
+        <v>1.570796389652381</v>
       </c>
       <c r="F5" t="n">
-        <v>-323405.1680605707</v>
+        <v>0.1573977307666882</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-323406.6314511346</v>
+        <v>1.773682572721552</v>
       </c>
       <c r="B6" t="n">
-        <v>-323410.0390068345</v>
+        <v>-0.01986414964943422</v>
       </c>
       <c r="C6" t="n">
-        <v>-323405.4526686324</v>
+        <v>1.37666879817116</v>
       </c>
       <c r="D6" t="n">
-        <v>-323407.2799216549</v>
+        <v>0.2139914957427274</v>
       </c>
       <c r="E6" t="n">
-        <v>-323406.543334822</v>
+        <v>1.570796390217484</v>
       </c>
       <c r="F6" t="n">
-        <v>-323405.0606548135</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>-323406.5109771397</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-323410.0390319746</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-323405.4526559674</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-323407.2799091807</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-323406.5433348218</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-323404.9401808192</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>-323406.3905031448</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-323410.0390571147</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-323405.4526433024</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-323407.2798967064</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-323406.5433348216</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-323404.819706825</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>-323406.2830973871</v>
-      </c>
-      <c r="B9" t="n">
-        <v>-323410.0390795278</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-323405.4526320113</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-323407.2798855852</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-323406.5433348214</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-323404.7123010678</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>-323406.1995553666</v>
-      </c>
-      <c r="B10" t="n">
-        <v>-323410.0390969611</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-323405.4526232288</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-323407.2798769351</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-323406.5433348212</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-323404.6287590479</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>-323406.1461271102</v>
-      </c>
-      <c r="B11" t="n">
-        <v>-323410.0391081104</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-323405.4526176121</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-323407.2798714029</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-323406.5433348211</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-323404.5753307916</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>-323406.1222444333</v>
-      </c>
-      <c r="B12" t="n">
-        <v>-323410.0391130941</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-323405.4526151014</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-323407.2798689301</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-323406.5433348211</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-323404.5514481149</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>-323406.1182482042</v>
-      </c>
-      <c r="B13" t="n">
-        <v>-323410.039113928</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-323405.4526146813</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-323407.2798685163</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-323406.5433348211</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-323404.5474518859</v>
+        <v>0.2028861675801713</v>
       </c>
     </row>
   </sheetData>

--- a/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_3_.xlsx
+++ b/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_3_.xlsx
@@ -423,122 +423,122 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.9883158986348851</v>
+        <v>0.9903733673316458</v>
       </c>
       <c r="B1" t="n">
-        <v>-0.01991750647244119</v>
+        <v>-0.0002537796048658035</v>
       </c>
       <c r="C1" t="n">
-        <v>1.376986154855319</v>
+        <v>1.40006462893066</v>
       </c>
       <c r="D1" t="n">
-        <v>0.2137275494794789</v>
+        <v>0.1709853632432805</v>
       </c>
       <c r="E1" t="n">
-        <v>1.570796380460873</v>
+        <v>1.570796390562869</v>
       </c>
       <c r="F1" t="n">
-        <v>-0.5824804901111894</v>
+        <v>-0.5804230367656859</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.033804336397985</v>
+        <v>1.03574262259447</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.01991441604525263</v>
+        <v>-9.196697643037226e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>1.376967773556172</v>
+        <v>1.398862850774126</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2137428372470463</v>
+        <v>0.1720253258411236</v>
       </c>
       <c r="E2" t="n">
-        <v>1.570796381025976</v>
+        <v>1.57079639084348</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.5369920532977058</v>
+        <v>-0.5350537819232115</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.237622695656957</v>
+        <v>1.239026965236186</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.01990056888254586</v>
+        <v>0.0006330608780510351</v>
       </c>
       <c r="C3" t="n">
-        <v>1.376885413149499</v>
+        <v>1.393478087873858</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2138113365812845</v>
+        <v>0.1766850477574261</v>
       </c>
       <c r="E3" t="n">
-        <v>1.570796383558012</v>
+        <v>1.570796392100804</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.3331736982936438</v>
+        <v>-0.3317694411649427</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.524375775699481</v>
+        <v>1.525028734600179</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.01988108723932955</v>
+        <v>0.001653106231889857</v>
       </c>
       <c r="C4" t="n">
-        <v>1.376769539876979</v>
+        <v>1.385902237726871</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2139077086409218</v>
+        <v>0.1832408340786359</v>
       </c>
       <c r="E4" t="n">
-        <v>1.570796387120345</v>
+        <v>1.57079639386974</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.04642062423737447</v>
+        <v>-0.04576767445078167</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.728194134958453</v>
+        <v>1.728313077241895</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.01986724007662278</v>
+        <v>0.002378134086371267</v>
       </c>
       <c r="C5" t="n">
-        <v>1.376687179470306</v>
+        <v>1.380517474826603</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2139762079751601</v>
+        <v>0.1879005559949384</v>
       </c>
       <c r="E5" t="n">
-        <v>1.570796389652381</v>
+        <v>1.570796395127064</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1573977307666882</v>
+        <v>0.1575166663074876</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.773682572721552</v>
+        <v>1.77368233250472</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.01986414964943422</v>
+        <v>0.002539946714806697</v>
       </c>
       <c r="C6" t="n">
-        <v>1.37666879817116</v>
+        <v>1.379315696670069</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2139914957427274</v>
+        <v>0.1889405185927815</v>
       </c>
       <c r="E6" t="n">
-        <v>1.570796390217484</v>
+        <v>1.570796395407675</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2028861675801713</v>
+        <v>0.2028859211499613</v>
       </c>
     </row>
   </sheetData>

--- a/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_3_.xlsx
+++ b/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_3_.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,121 +423,139 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
         <v>0.9903733673316458</v>
       </c>
-      <c r="B1" t="n">
+      <c r="C1" t="n">
         <v>-0.0002537796048658035</v>
       </c>
-      <c r="C1" t="n">
+      <c r="D1" t="n">
         <v>1.40006462893066</v>
       </c>
-      <c r="D1" t="n">
+      <c r="E1" t="n">
         <v>0.1709853632432805</v>
       </c>
-      <c r="E1" t="n">
+      <c r="F1" t="n">
         <v>1.570796390562869</v>
       </c>
-      <c r="F1" t="n">
+      <c r="G1" t="n">
         <v>-0.5804230367656859</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>0.2201727783259728</v>
+      </c>
+      <c r="B2" t="n">
         <v>1.03574262259447</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>-9.196697643037226e-05</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>1.398862850774126</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.1720253258411236</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>1.57079639084348</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>-0.5350537819232115</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>0.4403455566519455</v>
+      </c>
+      <c r="B3" t="n">
         <v>1.239026965236186</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>0.0006330608780510351</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>1.393478087873858</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.1766850477574261</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>1.570796392100804</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>-0.3317694411649427</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>0.6605183349779182</v>
+      </c>
+      <c r="B4" t="n">
         <v>1.525028734600179</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>0.001653106231889857</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>1.385902237726871</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>0.1832408340786359</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>1.57079639386974</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>-0.04576767445078167</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>0.880691113303891</v>
+      </c>
+      <c r="B5" t="n">
         <v>1.728313077241895</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>0.002378134086371267</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>1.380517474826603</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>0.1879005559949384</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>1.570796395127064</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.1575166663074876</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>1.100863891629864</v>
+      </c>
+      <c r="B6" t="n">
         <v>1.77368233250472</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>0.002539946714806697</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>1.379315696670069</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>0.1889405185927815</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>1.570796395407675</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.2028859211499613</v>
       </c>
     </row>

--- a/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_3_.xlsx
+++ b/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_3_.xlsx
@@ -426,137 +426,137 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>0.9903733673316458</v>
+        <v>-1.77368233250472</v>
       </c>
       <c r="C1" t="n">
-        <v>-0.0002537796048658035</v>
+        <v>1.56825638008009</v>
       </c>
       <c r="D1" t="n">
-        <v>1.40006462893066</v>
+        <v>1.379315696670069</v>
       </c>
       <c r="E1" t="n">
-        <v>0.1709853632432805</v>
+        <v>0.1889405185927815</v>
       </c>
       <c r="F1" t="n">
-        <v>1.570796390562869</v>
+        <v>-6.861277812575395e-08</v>
       </c>
       <c r="G1" t="n">
-        <v>-0.5804230367656859</v>
+        <v>0.2028859211499618</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2201727783259728</v>
+        <v>0.2213476497465884</v>
       </c>
       <c r="B2" t="n">
-        <v>1.03574262259447</v>
+        <v>-1.819293683204713</v>
       </c>
       <c r="C2" t="n">
-        <v>-9.196697643037226e-05</v>
+        <v>1.568418072846974</v>
       </c>
       <c r="D2" t="n">
-        <v>1.398862850774126</v>
+        <v>1.380517981017872</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1720253258411236</v>
+        <v>0.1878999055330415</v>
       </c>
       <c r="F2" t="n">
-        <v>1.57079639084348</v>
+        <v>-6.687521048043266e-08</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.5350537819232115</v>
+        <v>0.2484972728326442</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.4403455566519455</v>
+        <v>0.4426952994931767</v>
       </c>
       <c r="B3" t="n">
-        <v>1.239026965236186</v>
+        <v>-2.023662773910207</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0006330608780510351</v>
+        <v>1.56914256364224</v>
       </c>
       <c r="D3" t="n">
-        <v>1.393478087873858</v>
+        <v>1.385905011990622</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1766850477574261</v>
+        <v>0.1832372691161953</v>
       </c>
       <c r="F3" t="n">
-        <v>1.570796392100804</v>
+        <v>-5.908975553303719e-08</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3317694411649427</v>
+        <v>0.4528663679412378</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.6605183349779182</v>
+        <v>0.664042949239765</v>
       </c>
       <c r="B4" t="n">
-        <v>1.525028734600179</v>
+        <v>-2.31119068080906</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001653106231889857</v>
+        <v>1.570161853404754</v>
       </c>
       <c r="D4" t="n">
-        <v>1.385902237726871</v>
+        <v>1.39348405310025</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1832408340786359</v>
+        <v>0.1766773823694363</v>
       </c>
       <c r="F4" t="n">
-        <v>1.57079639386974</v>
+        <v>-4.813635934297622e-08</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.04576767445078167</v>
+        <v>0.7403942810348323</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.880691113303891</v>
+        <v>0.8853905989863534</v>
       </c>
       <c r="B5" t="n">
-        <v>1.728313077241895</v>
+        <v>-2.515559771514555</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002378134086371267</v>
+        <v>1.57088634420002</v>
       </c>
       <c r="D5" t="n">
-        <v>1.380517474826603</v>
+        <v>1.398871084073</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1879005559949384</v>
+        <v>0.1720147459525901</v>
       </c>
       <c r="F5" t="n">
-        <v>1.570796395127064</v>
+        <v>-4.035090439558076e-08</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1575166663074876</v>
+        <v>0.9447633761434262</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.100863891629864</v>
+        <v>1.106738248732942</v>
       </c>
       <c r="B6" t="n">
-        <v>1.77368233250472</v>
+        <v>-2.561171122214548</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002539946714806697</v>
+        <v>1.571048036966904</v>
       </c>
       <c r="D6" t="n">
-        <v>1.379315696670069</v>
+        <v>1.400073368420803</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1889405185927815</v>
+        <v>0.1709741328928501</v>
       </c>
       <c r="F6" t="n">
-        <v>1.570796395407675</v>
+        <v>-3.861333675025946e-08</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2028859211499613</v>
+        <v>0.9903747278261079</v>
       </c>
     </row>
   </sheetData>

--- a/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_3_.xlsx
+++ b/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_3_.xlsx
@@ -435,10 +435,10 @@
         <v>1.379315696670069</v>
       </c>
       <c r="E1" t="n">
-        <v>0.1889405185927815</v>
+        <v>1.381855808202115</v>
       </c>
       <c r="F1" t="n">
-        <v>-6.861277812575395e-08</v>
+        <v>-1.570796395407675</v>
       </c>
       <c r="G1" t="n">
         <v>0.2028859211499618</v>
@@ -458,10 +458,10 @@
         <v>1.380517981017872</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1878999055330415</v>
+        <v>1.382896421261855</v>
       </c>
       <c r="F2" t="n">
-        <v>-6.687521048043266e-08</v>
+        <v>-1.570796393670107</v>
       </c>
       <c r="G2" t="n">
         <v>0.2484972728326442</v>
@@ -481,10 +481,10 @@
         <v>1.385905011990622</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1832372691161953</v>
+        <v>1.387559057678701</v>
       </c>
       <c r="F3" t="n">
-        <v>-5.908975553303719e-08</v>
+        <v>-1.570796385884652</v>
       </c>
       <c r="G3" t="n">
         <v>0.4528663679412378</v>
@@ -504,10 +504,10 @@
         <v>1.39348405310025</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1766773823694363</v>
+        <v>1.39411894442546</v>
       </c>
       <c r="F4" t="n">
-        <v>-4.813635934297622e-08</v>
+        <v>-1.570796374931256</v>
       </c>
       <c r="G4" t="n">
         <v>0.7403942810348323</v>
@@ -527,10 +527,10 @@
         <v>1.398871084073</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1720147459525901</v>
+        <v>1.398781580842306</v>
       </c>
       <c r="F5" t="n">
-        <v>-4.035090439558076e-08</v>
+        <v>-1.570796367145801</v>
       </c>
       <c r="G5" t="n">
         <v>0.9447633761434262</v>
@@ -550,10 +550,10 @@
         <v>1.400073368420803</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1709741328928501</v>
+        <v>1.399822193902047</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.861333675025946e-08</v>
+        <v>-1.570796365408233</v>
       </c>
       <c r="G6" t="n">
         <v>0.9903747278261079</v>

--- a/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_3_.xlsx
+++ b/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_3_.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,19 +426,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>-1.77368233250472</v>
+        <v>1.77368233250472</v>
       </c>
       <c r="C1" t="n">
-        <v>1.56825638008009</v>
+        <v>0.002539946714806698</v>
       </c>
       <c r="D1" t="n">
-        <v>1.379315696670069</v>
+        <v>-1.379315696670069</v>
       </c>
       <c r="E1" t="n">
-        <v>1.381855808202115</v>
+        <v>0.1889405185927815</v>
       </c>
       <c r="F1" t="n">
-        <v>-1.570796395407675</v>
+        <v>1.570796395407675</v>
       </c>
       <c r="G1" t="n">
         <v>0.2028859211499618</v>
@@ -446,116 +446,369 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2213476497465884</v>
+        <v>0.2075134216374266</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.819293683204713</v>
+        <v>1.775429176724752</v>
       </c>
       <c r="C2" t="n">
-        <v>1.568418072846974</v>
+        <v>0.002533754131800096</v>
       </c>
       <c r="D2" t="n">
-        <v>1.380517981017872</v>
+        <v>-1.379361742301948</v>
       </c>
       <c r="E2" t="n">
-        <v>1.382896421261855</v>
+        <v>0.1889006647213043</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.570796393670107</v>
+        <v>1.570796395341129</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2484972728326442</v>
+        <v>0.20463276540763</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.4426952994931767</v>
+        <v>0.4150268432748532</v>
       </c>
       <c r="B3" t="n">
-        <v>-2.023662773910207</v>
+        <v>1.786323296353211</v>
       </c>
       <c r="C3" t="n">
-        <v>1.56914256364224</v>
+        <v>0.002495134351450242</v>
       </c>
       <c r="D3" t="n">
-        <v>1.385905011990622</v>
+        <v>-1.379648903925345</v>
       </c>
       <c r="E3" t="n">
-        <v>1.387559057678701</v>
+        <v>0.1886521177481109</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.570796385884652</v>
+        <v>1.570796394926116</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4528663679412378</v>
+        <v>0.2155268852708008</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.664042949239765</v>
+        <v>0.6225402649122798</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.31119068080906</v>
+        <v>1.812087371079111</v>
       </c>
       <c r="C4" t="n">
-        <v>1.570161853404754</v>
+        <v>0.002403800407931553</v>
       </c>
       <c r="D4" t="n">
-        <v>1.39348405310025</v>
+        <v>-1.380328027505401</v>
       </c>
       <c r="E4" t="n">
-        <v>1.39411894442546</v>
+        <v>0.1880643159790243</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.570796374931256</v>
+        <v>1.570796393944632</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7403942810348323</v>
+        <v>0.2412909605517837</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.8853905989863534</v>
+        <v>0.8300536865497063</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.515559771514555</v>
+        <v>1.855199726752026</v>
       </c>
       <c r="C5" t="n">
-        <v>1.57088634420002</v>
+        <v>0.002250966607382557</v>
       </c>
       <c r="D5" t="n">
-        <v>1.398871084073</v>
+        <v>-1.381464440034891</v>
       </c>
       <c r="E5" t="n">
-        <v>1.398781580842306</v>
+        <v>0.187080716948062</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.570796367145801</v>
+        <v>1.570796392302264</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9447633761434262</v>
+        <v>0.2844033171535473</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.106738248732942</v>
+        <v>1.037567108187133</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.561171122214548</v>
+        <v>1.915435061021994</v>
       </c>
       <c r="C6" t="n">
-        <v>1.571048036966904</v>
+        <v>0.002037431649245206</v>
       </c>
       <c r="D6" t="n">
-        <v>1.400073368420803</v>
+        <v>-1.383052202696291</v>
       </c>
       <c r="E6" t="n">
-        <v>1.399822193902047</v>
+        <v>0.1857064608794044</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.570796365408233</v>
+        <v>1.570796390007595</v>
       </c>
       <c r="G6" t="n">
+        <v>0.3446386527212763</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1.24508052982456</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.990405168979428</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.001771661747604192</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-1.385028364023833</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1839960341493616</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.570796387151603</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.4196087622939282</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1.452593951461986</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2.076099668795015</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.00146787375252626</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-1.38728721306557</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.1820409327483412</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.570796383887065</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.5053032639557899</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1.660107373099413</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2.167426727359634</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.001144118271399527</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-1.389694532545436</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.1799573257428158</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.570796380407954</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.5966303244880351</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1.867620794736839</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2.258753785924252</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0008203627902727949</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-1.392101852025302</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.1778737187372904</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.570796376928843</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.6879573850202804</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2.075134216374266</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.34444828573984</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0005165747951948628</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-1.39436070106704</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.17591861733627</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.570796373664305</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.773651886682142</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2.282647638011692</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2.419418393697272</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0002508048935538493</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-1.396336862394582</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.1742081906062272</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.570796370808313</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.8486219962547938</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2.490161059649119</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2.479653727967241</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.72699354164981e-05</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-1.397924625055981</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.1728339345375696</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.570796368513644</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.908857331822523</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2.697674481286546</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2.522766083640156</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.0001155638651324981</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-1.399061037585471</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.1718503355066073</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.570796366871276</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.9519696884242865</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2.905187902923972</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2.548530158366056</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.0002068978086511874</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-1.399740161165527</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.1712625337375207</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.570796365889792</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.977733763705269</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3.112701324561399</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2.559424277994514</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.0002455175890010383</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-1.400027322788925</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.1710139867643273</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.570796365474779</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.9886278835684386</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3.320214746198825</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2.561171122214548</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.000251710172007643</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-1.400073368420803</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.1709741328928501</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.570796365408233</v>
+      </c>
+      <c r="G17" t="n">
         <v>0.9903747278261079</v>
       </c>
     </row>

--- a/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_3_.xlsx
+++ b/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_3_.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,390 +426,436 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>1.77368233250472</v>
+        <v>-1.029780064897518</v>
       </c>
       <c r="C1" t="n">
-        <v>0.002539946714806698</v>
+        <v>1.049311877462017</v>
       </c>
       <c r="D1" t="n">
-        <v>-1.379315696670069</v>
+        <v>2.125103171934172</v>
       </c>
       <c r="E1" t="n">
-        <v>0.1889405185927815</v>
+        <v>-1.109529059597341</v>
       </c>
       <c r="F1" t="n">
-        <v>1.570796395407675</v>
+        <v>1.885079134007829</v>
       </c>
       <c r="G1" t="n">
-        <v>0.2028859211499618</v>
+        <v>2.005233503194396</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2075134216374266</v>
+        <v>0.202184352704481</v>
       </c>
       <c r="B2" t="n">
-        <v>1.775429176724752</v>
+        <v>-1.028159084722935</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002533754131800096</v>
+        <v>1.049598988779768</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.379361742301948</v>
+        <v>2.124881309972629</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1889006647213043</v>
+        <v>-1.10795357649742</v>
       </c>
       <c r="F2" t="n">
-        <v>1.570796395341129</v>
+        <v>1.880519432182444</v>
       </c>
       <c r="G2" t="n">
-        <v>0.20463276540763</v>
+        <v>2.002949471074121</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.4150268432748532</v>
+        <v>0.4043687054089621</v>
       </c>
       <c r="B3" t="n">
-        <v>1.786323296353211</v>
+        <v>-1.017910306844928</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002495134351450242</v>
+        <v>1.051414273240384</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.379648903925345</v>
+        <v>2.123478569828676</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1886521177481109</v>
+        <v>-1.097992457543078</v>
       </c>
       <c r="F3" t="n">
-        <v>1.570796394926116</v>
+        <v>1.851690349673563</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2155268852708008</v>
+        <v>1.988508493797538</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.6225402649122798</v>
+        <v>0.6065530581134431</v>
       </c>
       <c r="B4" t="n">
-        <v>1.812087371079111</v>
+        <v>-0.9932491850759724</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002403800407931553</v>
+        <v>1.055782301473741</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.380328027505401</v>
+        <v>2.120103226357291</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1880643159790243</v>
+        <v>-1.074023515059192</v>
       </c>
       <c r="F4" t="n">
-        <v>1.570796393944632</v>
+        <v>1.782320369886566</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2412909605517837</v>
+        <v>1.953759892225761</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.8300536865497063</v>
+        <v>0.8087374108179242</v>
       </c>
       <c r="B5" t="n">
-        <v>1.855199726752026</v>
+        <v>-0.9511363815887259</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002250966607382557</v>
+        <v>1.063241407200622</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.381464440034891</v>
+        <v>2.114339288380578</v>
       </c>
       <c r="E5" t="n">
-        <v>0.187080716948062</v>
+        <v>-1.03309271823341</v>
       </c>
       <c r="F5" t="n">
-        <v>1.570796392302264</v>
+        <v>1.66386005189886</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2844033171535473</v>
+        <v>1.894421106133273</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.037567108187133</v>
+        <v>1.010921763522405</v>
       </c>
       <c r="B6" t="n">
-        <v>1.915435061021994</v>
+        <v>-0.8908855942931435</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002037431649245206</v>
+        <v>1.073913149648299</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.383052202696291</v>
+        <v>2.106092822406756</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1857064608794044</v>
+        <v>-0.9745330278500385</v>
       </c>
       <c r="F6" t="n">
-        <v>1.570796390007595</v>
+        <v>1.494378876792437</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3446386527212763</v>
+        <v>1.809525105791731</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.24508052982456</v>
+        <v>1.213106116226886</v>
       </c>
       <c r="B7" t="n">
-        <v>1.990405168979428</v>
+        <v>-0.8137713842135949</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001771661747604192</v>
+        <v>1.087571775966123</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.385028364023833</v>
+        <v>2.095538276349135</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1839960341493616</v>
+        <v>-0.8995832310239359</v>
       </c>
       <c r="F7" t="n">
-        <v>1.570796387151603</v>
+        <v>1.277462093986452</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4196087622939282</v>
+        <v>1.70086780355377</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.452593951461986</v>
+        <v>1.415290468931367</v>
       </c>
       <c r="B8" t="n">
-        <v>2.076099668795015</v>
+        <v>-0.722637002865981</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00146787375252626</v>
+        <v>1.103713683641103</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.38728721306557</v>
+        <v>2.0830648032451</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1820409327483412</v>
+        <v>-0.8110067759343997</v>
       </c>
       <c r="F8" t="n">
-        <v>1.570796383887065</v>
+        <v>1.021107567569784</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5053032639557899</v>
+        <v>1.572455465436812</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.660107373099413</v>
+        <v>1.617474821635848</v>
       </c>
       <c r="B9" t="n">
-        <v>2.167426727359634</v>
+        <v>-0.6215022196348523</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001144118271399527</v>
+        <v>1.121626882913495</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.389694532545436</v>
+        <v>2.06922258497509</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1799573257428158</v>
+        <v>-0.7127106065590576</v>
       </c>
       <c r="F9" t="n">
-        <v>1.570796380407954</v>
+        <v>0.7366226226336074</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5966303244880351</v>
+        <v>1.429952122706861</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.867620794736839</v>
+        <v>1.819659174340329</v>
       </c>
       <c r="B10" t="n">
-        <v>2.258753785924252</v>
+        <v>-0.5151711491505244</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0008203627902727949</v>
+        <v>1.140460459192385</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.392101852025302</v>
+        <v>2.054669155981584</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1778737187372904</v>
+        <v>-0.6093639974077575</v>
       </c>
       <c r="F10" t="n">
-        <v>1.570796376928843</v>
+        <v>0.4375208916039601</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6879573850202804</v>
+        <v>1.280126983462317</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.075134216374266</v>
+        <v>2.021843527044811</v>
       </c>
       <c r="B11" t="n">
-        <v>2.34444828573984</v>
+        <v>-0.4088400786661963</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0005165747951948628</v>
+        <v>1.159294035471276</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.39436070106704</v>
+        <v>2.040115726988078</v>
       </c>
       <c r="E11" t="n">
-        <v>0.17591861733627</v>
+        <v>-0.5060173882564571</v>
       </c>
       <c r="F11" t="n">
-        <v>1.570796373664305</v>
+        <v>0.138419160574313</v>
       </c>
       <c r="G11" t="n">
-        <v>0.773651886682142</v>
+        <v>1.130301844217772</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.282647638011692</v>
+        <v>2.224027879749292</v>
       </c>
       <c r="B12" t="n">
-        <v>2.419418393697272</v>
+        <v>-0.3077052954350676</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0002508048935538493</v>
+        <v>1.177207234743669</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.396336862394582</v>
+        <v>2.026273508718069</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1742081906062272</v>
+        <v>-0.4077212188811151</v>
       </c>
       <c r="F12" t="n">
-        <v>1.570796370808313</v>
+        <v>-0.1460657843618627</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8486219962547938</v>
+        <v>0.9877985014878212</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.490161059649119</v>
+        <v>2.426212232453772</v>
       </c>
       <c r="B13" t="n">
-        <v>2.479653727967241</v>
+        <v>-0.2165709140874544</v>
       </c>
       <c r="C13" t="n">
-        <v>3.72699354164981e-05</v>
+        <v>1.193349142418649</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.397924625055981</v>
+        <v>2.013800035614033</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1728339345375696</v>
+        <v>-0.3191447637915795</v>
       </c>
       <c r="F13" t="n">
-        <v>1.570796368513644</v>
+        <v>-0.4024203107785302</v>
       </c>
       <c r="G13" t="n">
-        <v>0.908857331822523</v>
+        <v>0.8593861633708635</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.697674481286546</v>
+        <v>2.628396585158253</v>
       </c>
       <c r="B14" t="n">
-        <v>2.522766083640156</v>
+        <v>-0.1394567040079043</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.0001155638651324981</v>
+        <v>1.207007768736472</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.399061037585471</v>
+        <v>2.003245489556412</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1718503355066073</v>
+        <v>-0.2441949669654756</v>
       </c>
       <c r="F14" t="n">
-        <v>1.570796366871276</v>
+        <v>-0.6193370935845182</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9519696884242865</v>
+        <v>0.7507288611329019</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.905187902923972</v>
+        <v>2.830580937862734</v>
       </c>
       <c r="B15" t="n">
-        <v>2.548530158366056</v>
+        <v>-0.0792059167123228</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.0002068978086511874</v>
+        <v>1.21767951118415</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.399740161165527</v>
+        <v>1.99499902358259</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1712625337375207</v>
+        <v>-0.1856352765821048</v>
       </c>
       <c r="F15" t="n">
-        <v>1.570796365889792</v>
+        <v>-0.7888182686909397</v>
       </c>
       <c r="G15" t="n">
-        <v>0.977733763705269</v>
+        <v>0.6658328607913599</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3.112701324561399</v>
+        <v>3.032765290567216</v>
       </c>
       <c r="B16" t="n">
-        <v>2.559424277994514</v>
+        <v>-0.03709311322507658</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0002455175890010383</v>
+        <v>1.22513861691103</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.400027322788925</v>
+        <v>1.989235085605878</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1710139867643273</v>
+        <v>-0.1447044797563222</v>
       </c>
       <c r="F16" t="n">
-        <v>1.570796365474779</v>
+        <v>-0.907278586678645</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9886278835684386</v>
+        <v>0.6064940746988725</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.320214746198825</v>
+        <v>3.234949643271697</v>
       </c>
       <c r="B17" t="n">
-        <v>2.561171122214548</v>
+        <v>-0.01243199145612239</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.000251710172007643</v>
+        <v>1.229506645144387</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.400073368420803</v>
+        <v>1.985859742134493</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1709741328928501</v>
+        <v>-0.1207355372724379</v>
       </c>
       <c r="F17" t="n">
-        <v>1.570796365408233</v>
+        <v>-0.9766485664656384</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9903747278261079</v>
+        <v>0.5717454731270974</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3.437133995976178</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.002183213578114795</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.231321929605003</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.98445700199054</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.1107744183180948</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-1.005477648974519</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.5573044958505144</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3.639318348680659</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.0005622334035306764</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.231609040922754</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.984235140028996</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.1091989352181733</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-1.010037350799908</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.5550204637302367</v>
       </c>
     </row>
   </sheetData>
